--- a/data/notes_S2/Demarche_Portfolio.xlsx
+++ b/data/notes_S2/Demarche_Portfolio.xlsx
@@ -442,10 +442,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>19</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" ht="12.8" customHeight="1" s="5">
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6.4</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="4" ht="12.8" customHeight="1" s="5">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10.9</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="5" ht="12.8" customHeight="1" s="5">
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>13.7</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="6" ht="12.8" customHeight="1" s="5">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6.5</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="7" ht="12.8" customHeight="1" s="5">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="8" ht="12.8" customHeight="1" s="5">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>17.9</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="9" ht="12.8" customHeight="1" s="5">
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>17.8</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="10" ht="12.8" customHeight="1" s="5">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="11" ht="12.8" customHeight="1" s="5">
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>15.1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" ht="12.8" customHeight="1" s="5">
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>14.5</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="13" ht="12.8" customHeight="1" s="5">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>14.9</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="14" ht="12.8" customHeight="1" s="5">
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.3</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="15" ht="12.8" customHeight="1" s="5">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>13.2</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="16" ht="12.8" customHeight="1" s="5">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>16.4</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="17" ht="12.8" customHeight="1" s="5">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>14.4</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="18" ht="12.8" customHeight="1" s="5">
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>5.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="19" ht="12.8" customHeight="1" s="5">
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6.6</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="20" ht="12.8" customHeight="1" s="5">
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3.8</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="21" ht="12.8" customHeight="1" s="5">
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2.1</v>
+        <v>4.4</v>
       </c>
     </row>
   </sheetData>

--- a/data/notes_S2/Demarche_Portfolio.xlsx
+++ b/data/notes_S2/Demarche_Portfolio.xlsx
@@ -442,10 +442,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" ht="12.8" customHeight="1" s="5">
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>18.5</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="4" ht="12.8" customHeight="1" s="5">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>15.2</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="5" ht="12.8" customHeight="1" s="5">
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="6" ht="12.8" customHeight="1" s="5">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>18.2</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="7" ht="12.8" customHeight="1" s="5">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>17.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="8" ht="12.8" customHeight="1" s="5">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>12.5</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="9" ht="12.8" customHeight="1" s="5">
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8.4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="10" ht="12.8" customHeight="1" s="5">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4.7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" ht="12.8" customHeight="1" s="5">
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>11</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" ht="12.8" customHeight="1" s="5">
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>19.1</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="13" ht="12.8" customHeight="1" s="5">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4.9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" ht="12.8" customHeight="1" s="5">
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="15" ht="12.8" customHeight="1" s="5">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16" ht="12.8" customHeight="1" s="5">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>15.2</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="17" ht="12.8" customHeight="1" s="5">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>15.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="18" ht="12.8" customHeight="1" s="5">
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="19" ht="12.8" customHeight="1" s="5">
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>10.6</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="20" ht="12.8" customHeight="1" s="5">
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>15.7</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="21" ht="12.8" customHeight="1" s="5">
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4.4</v>
+        <v>12.4</v>
       </c>
     </row>
   </sheetData>

--- a/data/notes_S2/Demarche_Portfolio.xlsx
+++ b/data/notes_S2/Demarche_Portfolio.xlsx
@@ -388,13 +388,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.77734375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="18.7" customWidth="1" style="4" min="1" max="1"/>
     <col width="14.74" customWidth="1" style="4" min="3" max="3"/>
@@ -429,7 +429,7 @@
     </row>
     <row r="2" ht="12.8" customHeight="1" s="5">
       <c r="A2" s="4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="6" t="inlineStr">
         <is>
@@ -442,10 +442,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8.6</v>
+        <v>10.7</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="3" ht="12.8" customHeight="1" s="5">
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>15.9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="12.8" customHeight="1" s="5">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>16.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="5" ht="12.8" customHeight="1" s="5">
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="6" ht="12.8" customHeight="1" s="5">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6.9</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="7" ht="12.8" customHeight="1" s="5">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3.1</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="8" ht="12.8" customHeight="1" s="5">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>7.4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="9" ht="12.8" customHeight="1" s="5">
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.8</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="10" ht="12.8" customHeight="1" s="5">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11" ht="12.8" customHeight="1" s="5">
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.7</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="12" ht="12.8" customHeight="1" s="5">
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>19.5</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="13" ht="12.8" customHeight="1" s="5">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>13</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="14" ht="12.8" customHeight="1" s="5">
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="15" ht="12.8" customHeight="1" s="5">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.4</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="16" ht="12.8" customHeight="1" s="5">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6.5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="17" ht="12.8" customHeight="1" s="5">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="18" ht="12.8" customHeight="1" s="5">
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.3</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="19" ht="12.8" customHeight="1" s="5">
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>18.8</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="20" ht="12.8" customHeight="1" s="5">
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>16.6</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="21" ht="12.8" customHeight="1" s="5">
@@ -730,7 +730,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>12.4</v>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="22" ht="12.75" customHeight="1" s="5">
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>MOHA</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>YANIS</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>10.3</v>
       </c>
     </row>
   </sheetData>
